--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/JOSE MARTINEZ.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/JOSE MARTINEZ.xlsx
@@ -26,9 +26,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>NR Finance Mexico</x:t>
+  </x:si>
+  <x:si>
     <x:t>CSYSO</x:t>
   </x:si>
   <x:si>
+    <x:t>Certificacion de usuarios 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reporte de usuarios</x:t>
+  </x:si>
+  <x:si>
     <x:t>PEDROZA MERCADO CINTHYA E</x:t>
   </x:si>
   <x:si>
@@ -438,6 +447,9 @@
   </x:si>
   <x:si>
     <x:t>01/03/2024 08:17:46 a. m.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECISION ENGINE</x:t>
   </x:si>
   <x:si>
     <x:t>DECISIONENG</x:t>
@@ -528,10 +540,18 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
@@ -545,7 +565,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -563,14 +583,45 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -874,173 +925,205 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="6.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="D2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="E5" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
+      <x:c r="C6" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="H7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="A9" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="G9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="A10" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="D10" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1062,120 +1145,149 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="57.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="C5" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="B6" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F6" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="B7" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F7" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="A8" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="B8" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F8" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="A9" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="D9" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1197,143 +1309,172 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="27.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.853482" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="F7" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="G7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A8" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A9" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A10" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1355,74 +1496,103 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="7.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.853482" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="24.282054" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="C5" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="F6" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="A7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B7" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1444,145 +1614,173 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="37.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="D2" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="A7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="E7" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
-      <x:c r="A8" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A8" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
-      <x:c r="A9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A9" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="A10" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A10" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="A11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A11" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1604,124 +1802,151 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="D2" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B6" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="B8" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="B9" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="B10" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B11" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1743,25 +1968,55 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.853482" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1783,145 +2038,173 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="37.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="35.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="D2" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="B8" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
-      <x:c r="A9" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A9" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="A10" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A10" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="A11" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="A11" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F11" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1943,83 +2226,112 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="37.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="D2" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F6" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F7" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2041,187 +2353,216 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="D2" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="H5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="B6" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="H9" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="E10" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="A8" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="A9" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="A10" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="F11" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="G11" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2243,161 +2584,191 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="38.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="26.996339" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="24.282054" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.139196" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="D2" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="D5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="F6" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="G6" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B7" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A8" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A9" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="A10" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B10" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/JOSE MARTINEZ.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/JOSE MARTINEZ.xlsx
@@ -84,10 +84,10 @@
     <x:t>Comentarios</x:t>
   </x:si>
   <x:si>
-    <x:t>PEDROZA MERCADO CINTHYA E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NRPMCI</x:t>
+    <x:t>SIGALA VARGAS CARLOS ALBE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NRSVC2</x:t>
   </x:si>
   <x:si>
     <x:t>ACTIVO</x:t>
@@ -96,127 +96,118 @@
     <x:t>ControlAccesos</x:t>
   </x:si>
   <x:si>
+    <x:t>X191389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MACIAS ZERMEÑO DIEGO ARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NRMZD1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X698987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RODRIGUEZ  GETSEMANI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FNRGRR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REYES MUÑOZ TRINIDAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NRTRM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REYEST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOLICITUD DE CREDITO EN L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOLCRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TrustyDealer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NETSOL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ultimo Acceso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARTURO MASCORRO HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MascorroA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Produccion-Cierre</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">David Ruiz Silva </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruizd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MACIAS ZERMEÑO DIEGO ARMANDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Control de Acceso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EKIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Usuario/Cuenta Red</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perfil EKIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EKIP EKIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acces a tout EKIP | Acceso a todo EKIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trinidad Guadalupe  Reyes Muñoz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Control de Usuarios SETUP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GETSEMANI RODRIGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RODRIG5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLOS ALBERTO SIGALA VARGAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CINTHYA ELIZABETH PEDROZA MEDRANO</x:t>
+  </x:si>
+  <x:si>
     <x:t>X210625</x:t>
   </x:si>
   <x:si>
-    <x:t>JOSE MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SIGALA VARGAS CARLOS ALBE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NRSVC2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X191389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MACIAS ZERMEÑO DIEGO ARMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NRMZD1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X698987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RODRIGUEZ  GETSEMANI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FNRGRR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REYES MUÑOZ TRINIDAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NRTRM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REYEST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOLICITUD DE CREDITO EN L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOLCRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TrustyDealer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No aplica política de días de no acceso para esta cuenta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NETSOL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ultimo Acceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARTURO MASCORRO HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MascorroA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Produccion-Cierre</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">David Ruiz Silva </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruizd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MACIAS ZERMEÑO DIEGO ARMANDO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Control de Acceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EKIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Usuario/Cuenta Red</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perfil EKIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EKIP EKIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EKIP | TODO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trinidad Guadalupe  Reyes Mu?oz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USU2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GETSEMANI RODRIGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RODRIG5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARLOS ALBERTO SIGALA VARGAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CINTHYA ELIZABETH PEDROZA MEDRANO</x:t>
-  </x:si>
-  <x:si>
     <x:t>MARIA DEL PILAR GARCIA PINEDO</x:t>
   </x:si>
   <x:si>
     <x:t>X617345</x:t>
   </x:si>
   <x:si>
-    <x:t>DIEGO ARMANDO MACIAS ZEME?O</x:t>
+    <x:t>DIEGO ARMANDO MACIAS ZEMEÑO</x:t>
   </x:si>
   <x:si>
     <x:t>EKIPINTER</x:t>
@@ -318,48 +309,45 @@
     <x:t>PRODESK</x:t>
   </x:si>
   <x:si>
+    <x:t>JANNETTE AHELI MONTES MOTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X125500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SISTEMASPRODESK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JOSE DE JESUS REYES </x:t>
+  </x:si>
+  <x:si>
+    <x:t>JREYES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADMINISTRADOR TELEPRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIEGO MACIAS ZERMEÑO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONTROLACCESOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELIZABETH PEDROZA MERCADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLOS SIGALA VARGAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RODOLFO RODRIGUEZ CARRILLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X680455</x:t>
+  </x:si>
+  <x:si>
     <x:t>EDGAR MARTIN FERNANDEZ HERRERA</x:t>
   </x:si>
   <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SISTEMASPRODESK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIEGO MACIAS ZERMEÑO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONTROLACCESOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELIZABETH PEDROZA MERCADO</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">JOSE DE JESUS REYES </x:t>
-  </x:si>
-  <x:si>
-    <x:t>JREYES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADMINISTRADOR TELEPRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JANNETTE AHELI MONTES MOTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X125500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARLOS SIGALA VARGAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RODOLFO RODRIGUEZ CARRILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X680455</x:t>
-  </x:si>
-  <x:si>
     <x:t>INBROKER</x:t>
   </x:si>
   <x:si>
@@ -369,10 +357,10 @@
     <x:t>Fecha Ultimo Login</x:t>
   </x:si>
   <x:si>
-    <x:t>BLANCA ELIZABETH HERNANDEZ BECERRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X295751</x:t>
+    <x:t>Brenda Stephanie Montes Navarrete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMONTES</x:t>
   </x:si>
   <x:si>
     <x:t>CUSTODIO SISTEMAS</x:t>
@@ -381,115 +369,118 @@
     <x:t>SISTEMAS</x:t>
   </x:si>
   <x:si>
-    <x:t>Brenda Stephanie Montes Navarrete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BMONTES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERICK EDUARDO MORALES IBARRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMORALES</x:t>
-  </x:si>
-  <x:si>
     <x:t>CREDINISSAN</x:t>
   </x:si>
   <x:si>
     <x:t>USUARIO DE BATCH EMISION</x:t>
   </x:si>
   <x:si>
+    <x:t>DECISION ENGINE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECISIONENG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Decision Engine API decision.engine.api.service@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decision.engine.api.service@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Studio Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Módulos: Experian 1 (Origin), API (A)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decision.engine.api prod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decision.engine.api.prod@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decision.engine.api prodbak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decision.engine.api.prodbak@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decision.engine.api develop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decision.engine.api.develop@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miguel A. López</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miguel.LopezHernandez@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inactivo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Studio User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Módulos: STS (I): eeoa8074 - Activación gestionada CAS2445172</x:t>
+  </x:si>
+  <x:si>
     <x:t>SMARTIX</x:t>
   </x:si>
   <x:si>
-    <x:t>USR SMARTIX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VANIA LUCIA GUTIERREZ GOMEZ</x:t>
+    <x:t>Requiere acceso (Si/No)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brenda.MontesNavarrete@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NISSAN_VENTAS_ADMIN_CONSOLIDADOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sistemas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X840060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jose.aguilarolea@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NISSAN_VENTAS_COTIZADOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comercial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sosam4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moises.Sosa@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X212004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose.MartinezCamara@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X154988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luis.QuintanaSolorzano@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X668343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik.MoralesIbarra@nrfm.com.mx</x:t>
   </x:si>
   <x:si>
     <x:t>X745710</x:t>
   </x:si>
   <x:si>
-    <x:t>DECISION ENGINE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Departamento</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECISIONENG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Decision Engine API decision.engine.api.service@nrfm.com.mx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Riesgos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloqueado</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Studio Service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>decision.engine.api prod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>decision.engine.api prodbak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>decision.engine.api develop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Miguel A. López</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Studio User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requiere acceso (Si/No)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sosam4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moises.Sosa@nrfm.com.mx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NISSAN_VENTAS_COTIZADOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sistemas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X154988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Luis.QuintanaSolorzano@nrfm.com.mx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X212004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose.MartinezCamara@nrfm.com.mx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X668343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erik.MoralesIbarra@nrfm.com.mx</x:t>
-  </x:si>
-  <x:si>
     <x:t>Vania.GutierrezGomez@nrfm.com.mx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X840060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jose.aguilarolea@nrfm.com.mx</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -913,7 +904,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K11"/>
+  <x:dimension ref="A1:K10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -929,7 +920,7 @@
     <x:col min="8" max="8" width="30.996339" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="15.139196" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="50.282054" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11">
@@ -1004,10 +995,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="4">
-        <x:v>45338</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45350</x:v>
+        <x:v>44067</x:v>
+      </x:c>
+      <x:c r="G6" s="5">
+        <x:v>45323.7461689815</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>19</x:v>
@@ -1035,10 +1026,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="4">
-        <x:v>44067</x:v>
-      </x:c>
-      <x:c r="G7" s="4">
-        <x:v>45351</x:v>
+        <x:v>43342</x:v>
+      </x:c>
+      <x:c r="G7" s="5">
+        <x:v>45324.6347916667</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>23</x:v>
@@ -1065,15 +1056,11 @@
       <x:c r="E8" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F8" s="4">
-        <x:v>43342</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
-        <x:v>45351</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="F8" s="3"/>
+      <x:c r="G8" s="5">
+        <x:v>45322.9835416667</x:v>
+      </x:c>
+      <x:c r="H8" s="3"/>
       <x:c r="I8" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1085,10 +1072,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
         <x:v>17</x:v>
@@ -1096,13 +1083,13 @@
       <x:c r="E9" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F9" s="3" t="e">
-        <x:v>#VALUE!</x:v>
-      </x:c>
-      <x:c r="G9" s="4">
-        <x:v>45351</x:v>
-      </x:c>
-      <x:c r="H9" s="3" t="s"/>
+      <x:c r="F9" s="3"/>
+      <x:c r="G9" s="5">
+        <x:v>45324.7785648148</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="I9" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1123,53 +1110,20 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F10" s="3" t="e">
-        <x:v>#VALUE!</x:v>
-      </x:c>
-      <x:c r="G10" s="4">
-        <x:v>45348</x:v>
-      </x:c>
-      <x:c r="H10" s="3" t="s">
         <x:v>31</x:v>
       </x:c>
+      <x:c r="F10" s="4">
+        <x:v>42900</x:v>
+      </x:c>
+      <x:c r="G10" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H10" s="3"/>
       <x:c r="I10" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="J10" s="3"/>
       <x:c r="K10" s="3"/>
-    </x:row>
-    <x:row r="11" spans="1:11">
-      <x:c r="A11" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F11" s="4">
-        <x:v>42900</x:v>
-      </x:c>
-      <x:c r="G11" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H11" s="3" t="s"/>
-      <x:c r="I11" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J11" s="3"/>
-      <x:c r="K11" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:L5"/>
@@ -1194,13 +1148,13 @@
   <x:cols>
     <x:col min="1" max="1" width="13.424911" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="57.139196" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="40.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="13.567768" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="15.139196" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.853482" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="57.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
@@ -1210,7 +1164,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1231,7 +1185,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>7</x:v>
@@ -1240,7 +1194,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>12</x:v>
@@ -1254,19 +1208,19 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>44428</x:v>
@@ -1275,23 +1229,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H6" s="3"/>
-      <x:c r="I6" s="3"/>
+      <x:c r="I6" s="3" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>44875</x:v>
@@ -1300,23 +1256,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H7" s="3"/>
-      <x:c r="I7" s="3"/>
+      <x:c r="I7" s="3" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>44875</x:v>
@@ -1325,23 +1283,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="3"/>
-      <x:c r="I8" s="3"/>
+      <x:c r="I8" s="3" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>44875</x:v>
@@ -1350,23 +1310,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="3"/>
-      <x:c r="I9" s="3"/>
+      <x:c r="I9" s="3" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="3" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F10" s="4">
         <x:v>44435</x:v>
@@ -1375,7 +1337,9 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H10" s="3"/>
-      <x:c r="I10" s="3"/>
+      <x:c r="I10" s="3" t="s">
+        <x:v>128</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:J5"/>
@@ -1392,18 +1356,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I11"/>
+  <x:dimension ref="A1:I12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.139196" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="36.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="38.282054" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="27.139196" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.853482" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="38.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.710625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="15.139196" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="24.139196" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="14.853482" style="0" customWidth="1"/>
@@ -1416,7 +1379,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1446,13 +1409,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
         <x:v>14</x:v>
@@ -1460,22 +1423,22 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
         <x:v>20</x:v>
@@ -1485,22 +1448,22 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
         <x:v>20</x:v>
@@ -1510,22 +1473,22 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
         <x:v>20</x:v>
@@ -1535,22 +1498,22 @@
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
         <x:v>20</x:v>
@@ -1560,22 +1523,22 @@
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
         <x:v>20</x:v>
@@ -1585,28 +1548,53 @@
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="3"/>
       <x:c r="I11" s="3"/>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="A12" s="3" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F12" s="3" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G12" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H12" s="3"/>
+      <x:c r="I12" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:J5"/>
@@ -1647,7 +1635,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1677,7 +1665,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>12</x:v>
@@ -1691,22 +1679,22 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F6" s="5">
-        <x:v>45362.0797304745</x:v>
+        <x:v>45331.1492851505</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
         <x:v>20</x:v>
@@ -1716,22 +1704,22 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F7" s="5">
-        <x:v>45361.9720323727</x:v>
+        <x:v>45309.7308211806</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
         <x:v>20</x:v>
@@ -1741,22 +1729,22 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F8" s="5">
-        <x:v>45355.3756241088</x:v>
+        <x:v>45328.4483835648</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
         <x:v>20</x:v>
@@ -1802,7 +1790,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="D2" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1823,10 +1811,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
         <x:v>9</x:v>
@@ -1843,16 +1831,16 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="4">
         <x:v>43156</x:v>
@@ -1865,19 +1853,19 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E7" s="4">
-        <x:v>43929</x:v>
+        <x:v>44047</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
         <x:v>20</x:v>
@@ -1887,16 +1875,16 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>44550</x:v>
@@ -1909,16 +1897,16 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>44369</x:v>
@@ -1931,16 +1919,16 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>44768</x:v>
@@ -1953,16 +1941,16 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>43763</x:v>
@@ -1975,16 +1963,16 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>44634</x:v>
@@ -2032,7 +2020,7 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="D2" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -2070,16 +2058,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
         <x:v>20</x:v>
@@ -2089,16 +2077,16 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
         <x:v>20</x:v>
@@ -2108,16 +2096,16 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
         <x:v>20</x:v>
@@ -2127,16 +2115,16 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>20</x:v>
@@ -2146,16 +2134,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
         <x:v>20</x:v>
@@ -2165,16 +2153,16 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
         <x:v>20</x:v>
@@ -2184,16 +2172,16 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
         <x:v>20</x:v>
@@ -2240,7 +2228,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -2284,21 +2272,23 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F6" s="3"/>
+      <x:c r="F6" s="4">
+        <x:v>43742</x:v>
+      </x:c>
       <x:c r="G6" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2343,7 +2333,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="D2" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -2384,19 +2374,19 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
         <x:v>20</x:v>
@@ -2406,19 +2396,19 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
         <x:v>20</x:v>
@@ -2428,19 +2418,19 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
         <x:v>20</x:v>
@@ -2450,19 +2440,19 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
         <x:v>20</x:v>
@@ -2472,19 +2462,19 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
         <x:v>20</x:v>
@@ -2494,19 +2484,19 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
         <x:v>20</x:v>
@@ -2516,19 +2506,19 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
         <x:v>20</x:v>
@@ -2576,7 +2566,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -2606,10 +2596,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -2623,25 +2613,25 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45208</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45352</x:v>
+        <x:v>45334</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
@@ -2651,19 +2641,19 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>45098</x:v>
@@ -2679,25 +2669,25 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>45098</x:v>
       </x:c>
       <x:c r="G8" s="4">
-        <x:v>45355</x:v>
+        <x:v>45331</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
         <x:v>20</x:v>
@@ -2745,7 +2735,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -2775,10 +2765,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -2792,25 +2782,25 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="F6" s="4">
-        <x:v>45104</x:v>
+        <x:v>45110</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45355</x:v>
+        <x:v>45335</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
@@ -2820,25 +2810,25 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F7" s="4">
-        <x:v>45106</x:v>
+        <x:v>45069</x:v>
       </x:c>
       <x:c r="G7" s="4">
-        <x:v>45355</x:v>
+        <x:v>45334</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>20</x:v>
@@ -2848,25 +2838,25 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F8" s="4">
-        <x:v>45208</x:v>
+        <x:v>45106</x:v>
       </x:c>
       <x:c r="G8" s="4">
-        <x:v>45355</x:v>
+        <x:v>45331</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
         <x:v>20</x:v>
@@ -2876,25 +2866,25 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F9" s="4">
-        <x:v>45069</x:v>
+        <x:v>45208</x:v>
       </x:c>
       <x:c r="G9" s="4">
-        <x:v>45353</x:v>
+        <x:v>45331</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
         <x:v>20</x:v>
@@ -2904,25 +2894,25 @@
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F10" s="4">
-        <x:v>45110</x:v>
+        <x:v>45106</x:v>
       </x:c>
       <x:c r="G10" s="4">
-        <x:v>45352</x:v>
+        <x:v>45329</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
         <x:v>20</x:v>
@@ -2932,25 +2922,25 @@
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="3" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="F11" s="4">
-        <x:v>45106</x:v>
+        <x:v>45110</x:v>
       </x:c>
       <x:c r="G11" s="4">
-        <x:v>45351</x:v>
+        <x:v>45320</x:v>
       </x:c>
       <x:c r="H11" s="3" t="s">
         <x:v>20</x:v>
@@ -2960,25 +2950,25 @@
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="3" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="F12" s="4">
-        <x:v>45110</x:v>
+        <x:v>45104</x:v>
       </x:c>
       <x:c r="G12" s="4">
-        <x:v>45320</x:v>
+        <x:v>45316</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
         <x:v>20</x:v>
@@ -3001,14 +2991,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J11"/>
+  <x:dimension ref="A1:J7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="38.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="33.853482" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.996339" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="19.996339" style="0" customWidth="1"/>
@@ -3026,7 +3016,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -3056,10 +3046,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -3073,25 +3063,25 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G6" s="5">
-        <x:v>45355.7020854167</x:v>
+        <x:v>45330.6414638079</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
@@ -3101,143 +3091,31 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G7" s="5">
-        <x:v>45355.4602134259</x:v>
+        <x:v>44036.3246412037</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I7" s="3"/>
       <x:c r="J7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G8" s="5">
-        <x:v>45343.7478762731</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I8" s="3"/>
-      <x:c r="J8" s="3"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="F9" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="G9" s="5">
-        <x:v>44036.3246412037</x:v>
-      </x:c>
-      <x:c r="H9" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I9" s="3"/>
-      <x:c r="J9" s="3"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="F10" s="3" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G10" s="5">
-        <x:v>45350.4807617245</x:v>
-      </x:c>
-      <x:c r="H10" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I10" s="3"/>
-      <x:c r="J10" s="3"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F11" s="3" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G11" s="5">
-        <x:v>45352.3456720255</x:v>
-      </x:c>
-      <x:c r="H11" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I11" s="3"/>
-      <x:c r="J11" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:K5"/>
